--- a/End_2_EndTestAutomationReport.xlsx
+++ b/End_2_EndTestAutomationReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31100" yWindow="560" windowWidth="28680" windowHeight="13340" tabRatio="218" activeTab="2"/>
+    <workbookView xWindow="37080" yWindow="60" windowWidth="24020" windowHeight="17220" tabRatio="218" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 2ne" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="424">
   <si>
     <t>Test Execution Report : August 2nd 2016, 2:41:22 pm</t>
   </si>
@@ -1400,12 +1400,148 @@
     <t>ooba_payment.test.js
 Line 29, why a BACS payment</t>
   </si>
+  <si>
+    <t>Payment workflow with mocked objs
+nickname created and used
+payment workflow evaluated to completion
+Success modal confirming payee saved
+workflow is reentered looking for new payee</t>
+  </si>
+  <si>
+    <t>a workflow is entered and the uniqueness of a payee is evaluated</t>
+  </si>
+  <si>
+    <t>payee.test.js</t>
+  </si>
+  <si>
+    <t>think needs better name</t>
+  </si>
+  <si>
+    <t>Js FM happens
+Specific payment works flows are executed
+some complication I need to discuss
+Success modal is evaluated FAILURE notice is takes for PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String value for Nickname is created
+Edit Payee is called  ln190
+Check for name Uniqueness is completed
+</t>
+  </si>
+  <si>
+    <t>steps executed are not real clear to me 
+Can resolve discussing with Abhi briefly</t>
+  </si>
+  <si>
+    <t>paymentEntitlement.test.ja</t>
+  </si>
+  <si>
+    <t>***  WE NEED  ***</t>
+  </si>
+  <si>
+    <t>To check Faster Payment Count on top Header to go to Zero when filtering on something that would result in No Records returned.</t>
+  </si>
+  <si>
+    <t>A specific User is identified who has valid funding accounts.
+Nav to the Payment Summary (HOME) pg
+User entitlements are set &amp; confirmed
+Capture a count of entitled accounts
+Display in the Payment Summary (HOME) is compared to the configured expectation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count of Payments made.  Payment Work flow compleates.  Count of payment again. Evaluagte the difference ( shoujld be greater )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This code and the code in the next test is complicated to follow.
+Would enjoy sitting with Abhi to go over the </t>
+  </si>
+  <si>
+    <t>… with Abhi to go over the test code.</t>
+  </si>
+  <si>
+    <t>ptorUserNoAccView.test.js</t>
+  </si>
+  <si>
+    <t>Login as a user with NO VIEW entitlement
+get number of entries on the paymen summary page, compare with ZERO… It passes because there are no payments to view</t>
+  </si>
+  <si>
+    <t>Nav to the mk pay pg.  Get list of funding accounts.  Compare with value 4. This user has entitlent on 4 accounts.  Pass</t>
+  </si>
+  <si>
+    <t>ptor_user2_allScenario.test.js</t>
+  </si>
+  <si>
+    <t>Where is browser defined ??</t>
+  </si>
+  <si>
+    <t>User with Make Payment entitlement login and navigate to make payment. currentURL is checked agains the known mkPayment page URL</t>
+  </si>
+  <si>
+    <t>While on the Make paymet page. The Payee Selector drop down is activated and the count of payees is compared with the fixed value of 2.</t>
+  </si>
+  <si>
+    <t>While on the Payee Selector Dropdown the full list is captured and compared to a know list in configuration</t>
+  </si>
+  <si>
+    <t>While on the Make Payment page Payee selector Dropddown, the first payee name is captured and compared with a configured value.</t>
+  </si>
+  <si>
+    <t>While on the Make Payment page Payee selector Dropddown, the first payee Account number is caputured and compared with a configured known value</t>
+  </si>
+  <si>
+    <t>With max values known or set, While still on make payment page. Execute pay workflow with payment value = max+1: Expect FAIL</t>
+  </si>
+  <si>
+    <t>Same test above is re run and alert is detected. Work flow is rerouted to retun the same pay work flow with amount that will not exceed max.  Additionally an error is injected in the workflow…</t>
+  </si>
+  <si>
+    <t>While on Make Payment Page, Funding Account drop down is selected and list count is captured.  Count is compared to a configured known value</t>
+  </si>
+  <si>
+    <t>Should have a better name</t>
+  </si>
+  <si>
+    <t>Naming: We say Accounts without a proper identifier ('Funding', Customer/Payee, etc)</t>
+  </si>
+  <si>
+    <t>While on Make Payment page
+I believe Payee Account Names are captured and compared with a known / configured list</t>
+  </si>
+  <si>
+    <t>is there a problem on line 134.  NO apparently not. EMCA6 vs intelliJ that doesn't understand…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nav to Make Payment.
+Select Faster
+Set payment amount 100001, commit
+Expect and Exceeding Limit Alert
+Rerun with 100000, ( $1 Less ),expect
+Success </t>
+  </si>
+  <si>
+    <t>Acquire the configured C/O times, Nav to Payments, execute workflow, evaluate / compare returned cutoff time</t>
+  </si>
+  <si>
+    <t>Need to review with eng for understanding purpose…</t>
+  </si>
+  <si>
+    <t>Configure for FASTER PAYMENTS
+Compare the user logged in with PTs that are returned.  Should be the same</t>
+  </si>
+  <si>
+    <t>As user logged Actual payment type Name is set and then compared against the type abailable to the logged in user.</t>
+  </si>
+  <si>
+    <t>calendarBusinessDayScenario.test.db.js</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1491,6 +1627,10 @@
       <color rgb="FF202020"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1566,7 +1706,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1586,8 +1726,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1655,12 +1807,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1670,8 +1816,35 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1681,6 +1854,12 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1690,6 +1869,12 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2036,10 +2221,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5">
@@ -3441,10 +3626,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5073,17 +5258,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="4"/>
-    <col min="2" max="2" width="53.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
@@ -5271,972 +5456,1027 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
-      <c r="B11" s="6" t="s">
-        <v>319</v>
-      </c>
+    <row r="11" spans="1:11" ht="16" thickBot="1">
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" s="6">
-        <v>17.808</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="46" thickBot="1">
-      <c r="B12" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
+      <c r="F11" s="21"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="61" thickBot="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="33" t="s">
+        <v>395</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>379</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="6">
-        <v>17.808</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>321</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G13" s="6">
-        <v>29.838999999999999</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="F13" s="21"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="B14" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="21" t="s">
+        <v>380</v>
+      </c>
       <c r="G14" s="6">
-        <v>14.086</v>
+        <v>17.808</v>
       </c>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="61" thickBot="1">
+    <row r="15" spans="1:11" ht="46" thickBot="1">
       <c r="B15" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="6">
-        <v>14.085000000000001</v>
+        <v>17.808</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>384</v>
-      </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="17" t="s">
-        <v>275</v>
-      </c>
       <c r="B16" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="21" t="s">
+        <v>382</v>
+      </c>
       <c r="G16" s="6">
-        <v>17.338999999999999</v>
+        <v>29.838999999999999</v>
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1">
-      <c r="A17" s="17" t="s">
-        <v>276</v>
-      </c>
+    <row r="17" spans="1:9" ht="16" thickBot="1">
       <c r="B17" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="21"/>
       <c r="G17" s="6">
-        <v>1E-3</v>
+        <v>14.086</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="53" thickBot="1">
-      <c r="A18" s="17" t="s">
-        <v>277</v>
-      </c>
+    <row r="18" spans="1:9" ht="61" thickBot="1">
       <c r="B18" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>385</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="21"/>
       <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1">
+        <v>14.085000000000001</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" thickBot="1">
+      <c r="A19" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="B19" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="21"/>
       <c r="G19" s="6">
-        <v>67.402000000000001</v>
+        <v>17.338999999999999</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="A20" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="B20" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="14"/>
       <c r="F20" s="21"/>
       <c r="G20" s="6">
-        <v>22.582000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="31" thickBot="1">
+    <row r="21" spans="1:9" ht="53" thickBot="1">
+      <c r="A21" s="17" t="s">
+        <v>277</v>
+      </c>
       <c r="B21" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="21"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>385</v>
+      </c>
       <c r="G21" s="6">
-        <v>12.74</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="31" thickBot="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1">
       <c r="B22" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>389</v>
+      </c>
       <c r="G22" s="6">
-        <v>9.8420000000000005</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16" thickBot="1">
+        <v>67.402000000000001</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1">
       <c r="B23" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="21"/>
       <c r="G23" s="6">
-        <v>18.760999999999999</v>
+        <v>22.582000000000001</v>
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="31" thickBot="1">
+    <row r="24" spans="1:9" ht="91" thickBot="1">
       <c r="B24" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="21"/>
       <c r="G24" s="6">
-        <v>9.8670000000000009</v>
+        <v>12.74</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1">
+    <row r="25" spans="1:9" ht="31" thickBot="1">
       <c r="B25" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="21"/>
       <c r="G25" s="6">
-        <v>8.8940000000000001</v>
+        <v>9.8420000000000005</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21" thickBot="1">
-      <c r="A26" s="17" t="s">
-        <v>279</v>
-      </c>
+    <row r="26" spans="1:9" ht="16" thickBot="1">
       <c r="B26" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="s">
-        <v>278</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="21"/>
       <c r="G26" s="6">
-        <v>33.344999999999999</v>
+        <v>18.760999999999999</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
-      <c r="A27" s="17" t="s">
-        <v>280</v>
+    <row r="27" spans="1:9" ht="106" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="21"/>
       <c r="G27" s="6">
-        <v>15.061</v>
-      </c>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="46" thickBot="1">
-      <c r="A28" s="17"/>
+        <v>9.8670000000000009</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="76" thickBot="1">
       <c r="B28" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>281</v>
+        <v>80</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="6">
-        <v>3.5910000000000002</v>
+        <v>8.8940000000000001</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="37" customHeight="1" thickBot="1">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:9" ht="46" thickBot="1">
+      <c r="A29" s="17" t="s">
+        <v>279</v>
+      </c>
       <c r="B29" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>334</v>
+      </c>
+      <c r="C29" s="21"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="21"/>
+      <c r="E29" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>394</v>
+      </c>
       <c r="G29" s="6">
-        <v>11.47</v>
+        <v>33.344999999999999</v>
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="42" customHeight="1" thickBot="1">
+    <row r="30" spans="1:9" ht="31" thickBot="1">
+      <c r="A30" s="17" t="s">
+        <v>280</v>
+      </c>
       <c r="B30" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>283</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="21"/>
       <c r="G30" s="6">
-        <v>11.47</v>
-      </c>
-      <c r="H30" s="9" t="s">
+        <v>15.061</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" s="32" customFormat="1" ht="106" thickBot="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="30"/>
+      <c r="G31" s="29">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="H31" s="31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" thickBot="1">
-      <c r="B31" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="6">
-        <v>23.425000000000001</v>
-      </c>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="16" thickBot="1">
+    <row r="32" spans="1:9" ht="37" customHeight="1" thickBot="1">
+      <c r="A32" s="17"/>
       <c r="B32" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="21"/>
       <c r="G32" s="6">
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="31" thickBot="1">
+        <v>11.47</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" ht="76" thickBot="1">
       <c r="B33" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>400</v>
+      </c>
       <c r="F33" s="21"/>
       <c r="G33" s="6">
-        <v>2.2770000000000001</v>
+        <v>11.47</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16" thickBot="1">
+    <row r="34" spans="2:8" ht="38" customHeight="1" thickBot="1">
       <c r="B34" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="21" t="s">
+        <v>401</v>
+      </c>
       <c r="G34" s="6">
-        <v>58.034999999999997</v>
+        <v>23.425000000000001</v>
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="2:8" ht="16" thickBot="1">
+    <row r="35" spans="2:8" ht="76" customHeight="1" thickBot="1">
       <c r="B35" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+        <v>340</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="21"/>
       <c r="G35" s="6">
-        <v>10.64</v>
-      </c>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="2:8" ht="31" thickBot="1">
+        <v>4.3040000000000003</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="58" customHeight="1" thickBot="1">
       <c r="B36" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="21"/>
       <c r="G36" s="6">
-        <v>1.4970000000000001</v>
+        <v>2.2770000000000001</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="31" thickBot="1">
+    <row r="37" spans="2:8" ht="27" thickBot="1">
       <c r="B37" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="G37" s="6">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="31" thickBot="1">
+        <v>58.034999999999997</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" ht="16" thickBot="1">
       <c r="B38" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>167</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="21"/>
       <c r="G38" s="6">
-        <v>2.2610000000000001</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="31" thickBot="1">
+        <v>10.64</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="61" thickBot="1">
       <c r="B39" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>405</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="6">
-        <v>2.3879999999999999</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:8" ht="31" thickBot="1">
+    <row r="40" spans="2:8" ht="61" thickBot="1">
       <c r="B40" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D40" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>407</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="21"/>
       <c r="G40" s="6">
-        <v>2.089</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="16" thickBot="1">
+    <row r="41" spans="2:8" ht="46" thickBot="1">
       <c r="B41" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
+        <v>346</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="21"/>
       <c r="G41" s="6">
-        <v>9.7650000000000006</v>
-      </c>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="2:8" ht="46" thickBot="1">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="61" thickBot="1">
       <c r="B42" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="21"/>
       <c r="G42" s="6">
-        <v>4.2389999999999999</v>
+        <v>2.3879999999999999</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="46" thickBot="1">
+    <row r="43" spans="2:8" ht="61" thickBot="1">
       <c r="B43" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="6"/>
+        <v>349</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="21"/>
       <c r="G43" s="6">
-        <v>5.524</v>
+        <v>2.089</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="16" thickBot="1">
+    <row r="44" spans="2:8" ht="27" thickBot="1">
       <c r="B44" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="21"/>
+      <c r="F44" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="G44" s="6">
-        <v>10.351000000000001</v>
+        <v>9.7650000000000006</v>
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" ht="31" thickBot="1">
+    <row r="45" spans="2:8" ht="61" thickBot="1">
       <c r="B45" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="21"/>
       <c r="G45" s="6">
-        <v>5.0940000000000003</v>
+        <v>4.2389999999999999</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="31" thickBot="1">
+    <row r="46" spans="2:8" ht="76" thickBot="1">
       <c r="B46" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="21"/>
       <c r="G46" s="6">
-        <v>5.2569999999999997</v>
+        <v>5.524</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="16" thickBot="1">
+    <row r="47" spans="2:8" ht="27" thickBot="1">
       <c r="B47" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="21"/>
+      <c r="F47" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="G47" s="6">
-        <v>2.5720000000000001</v>
+        <v>10.351000000000001</v>
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" ht="46" thickBot="1">
+    <row r="48" spans="2:8" ht="61" thickBot="1">
       <c r="B48" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="F48" s="21"/>
       <c r="G48" s="6">
-        <v>2.5720000000000001</v>
+        <v>5.0940000000000003</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="16" thickBot="1">
+    <row r="49" spans="2:8" ht="76" thickBot="1">
       <c r="B49" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+        <v>355</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="F49" s="21"/>
       <c r="G49" s="6">
-        <v>1.9330000000000001</v>
-      </c>
-      <c r="H49" s="6"/>
+        <v>5.2569999999999997</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="2:8" ht="31" thickBot="1">
       <c r="B50" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="21"/>
+      <c r="F50" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="G50" s="6">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="H50" s="9" t="s">
+        <v>2.5720000000000001</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" ht="91" thickBot="1">
+      <c r="B51" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" ht="16" thickBot="1">
-      <c r="B51" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="31" thickBot="1">
       <c r="B52" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>207</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="6">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="31" thickBot="1">
+      <c r="F52" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="46" thickBot="1">
       <c r="B53" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>420</v>
+      </c>
       <c r="F53" s="21"/>
       <c r="G53" s="6">
-        <v>1.542</v>
+        <v>2.5720000000000001</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="16" thickBot="1">
+    <row r="54" spans="2:8" ht="27" thickBot="1">
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-      <c r="F54" s="21"/>
+      <c r="F54" s="21" t="s">
+        <v>404</v>
+      </c>
       <c r="G54" s="6">
-        <v>1E-3</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="2:8" ht="16" thickBot="1">
+    <row r="55" spans="2:8" ht="46" thickBot="1">
       <c r="B55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>421</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="21"/>
       <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6"/>
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="2:8" ht="46" thickBot="1">
       <c r="B56" s="6" t="s">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="21"/>
       <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="31" thickBot="1">
+        <v>3.14</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="27" thickBot="1">
       <c r="B57" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="21"/>
+      <c r="F57" s="21" t="s">
+        <v>423</v>
+      </c>
       <c r="G57" s="6">
-        <v>1E-3</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:8" ht="31" thickBot="1">
       <c r="B58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="21"/>
       <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="31" thickBot="1">
+        <v>1.542</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" ht="46" thickBot="1">
       <c r="B59" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="21"/>
       <c r="G59" s="6">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="2:8" ht="31" thickBot="1">
       <c r="B60" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="21"/>
       <c r="G60" s="6">
         <v>0</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" ht="31" thickBot="1">
       <c r="B61" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="31" thickBot="1">
+      <c r="B62" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" ht="31" thickBot="1">
+      <c r="B63" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="31" thickBot="1">
+      <c r="B64" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F64" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" ht="46" thickBot="1">
+      <c r="B65" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="F65" s="24"/>
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="46" thickBot="1">
+      <c r="B66" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F66" s="24"/>
+      <c r="G66" s="6">
         <v>34.838999999999999</v>
       </c>
-      <c r="H61" s="6"/>
-    </row>
-    <row r="62" spans="2:8" ht="46" thickBot="1">
-      <c r="B62" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F62" s="26"/>
-      <c r="G62" s="6">
+      <c r="H66" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="46" thickBot="1">
+      <c r="B67" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="G67" s="6">
         <v>6.6680000000000001</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="46" thickBot="1">
-      <c r="B63" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" s="26"/>
-      <c r="G63" s="6">
-        <v>6.5090000000000003</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="46" thickBot="1">
-      <c r="B64" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="13"/>
-      <c r="G64" s="6">
-        <v>5.4930000000000003</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="27" thickBot="1">
-      <c r="B65" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="G65" s="6">
-        <v>62.238999999999997</v>
-      </c>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="2:8" ht="31" thickBot="1">
-      <c r="B66" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="6">
-        <v>20.864999999999998</v>
-      </c>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="2:8" ht="31" thickBot="1">
-      <c r="B67" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="6">
-        <v>0.45100000000000001</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="16" thickBot="1">
+    <row r="68" spans="2:8" ht="31" thickBot="1">
       <c r="B68" s="6" t="s">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="21"/>
+      <c r="F68" s="21" t="s">
+        <v>299</v>
+      </c>
       <c r="G68" s="6">
-        <v>2.3679999999999999</v>
+        <v>6.5090000000000003</v>
       </c>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8" ht="16" thickBot="1">
+    <row r="69" spans="2:8" ht="31" thickBot="1">
       <c r="B69" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="21"/>
       <c r="G69" s="6">
-        <v>0.19</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="16" thickBot="1">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" ht="31" thickBot="1">
       <c r="B70" s="6" t="s">
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="21"/>
       <c r="G70" s="6">
-        <v>0.3</v>
+        <v>62.238999999999997</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>40</v>
@@ -6244,46 +6484,46 @@
     </row>
     <row r="71" spans="2:8" ht="31" thickBot="1">
       <c r="B71" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>230</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="21"/>
       <c r="G71" s="6">
-        <v>0.104</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="16" thickBot="1">
+        <v>20.864999999999998</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" ht="31" thickBot="1">
       <c r="B72" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="21"/>
       <c r="G72" s="6">
-        <v>17.792000000000002</v>
-      </c>
-      <c r="H72" s="6"/>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="73" spans="2:8" ht="31" thickBot="1">
       <c r="B73" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="21"/>
       <c r="G73" s="6">
-        <v>2.1070000000000002</v>
+        <v>2.3679999999999999</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>40</v>
@@ -6291,16 +6531,16 @@
     </row>
     <row r="74" spans="2:8" ht="31" thickBot="1">
       <c r="B74" s="6" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="21"/>
       <c r="G74" s="6">
-        <v>3.052</v>
+        <v>0.19</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>40</v>
@@ -6308,33 +6548,29 @@
     </row>
     <row r="75" spans="2:8" ht="31" thickBot="1">
       <c r="B75" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="21"/>
       <c r="G75" s="6">
-        <v>3.024</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="2:8" ht="31" thickBot="1">
       <c r="B76" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="21"/>
       <c r="G76" s="6">
-        <v>3.0059999999999998</v>
+        <v>0.104</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>40</v>
@@ -6342,16 +6578,16 @@
     </row>
     <row r="77" spans="2:8" ht="31" thickBot="1">
       <c r="B77" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="21"/>
       <c r="G77" s="6">
-        <v>2.6720000000000002</v>
+        <v>17.792000000000002</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>40</v>
@@ -6359,106 +6595,114 @@
     </row>
     <row r="78" spans="2:8" ht="31" thickBot="1">
       <c r="B78" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="21"/>
       <c r="G78" s="6">
-        <v>2.7909999999999999</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="16" thickBot="1">
+    <row r="79" spans="2:8" ht="31" thickBot="1">
       <c r="B79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="21"/>
       <c r="G79" s="6">
-        <v>5.48</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>3.052</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="80" spans="2:8" ht="31" thickBot="1">
       <c r="B80" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="21"/>
       <c r="G80" s="6">
-        <v>2.7759999999999998</v>
+        <v>3.024</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="46" thickBot="1">
+    <row r="81" spans="2:8" ht="31" thickBot="1">
       <c r="B81" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="21"/>
       <c r="G81" s="6">
-        <v>2.036</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="16" thickBot="1">
+    <row r="82" spans="2:8" ht="31" thickBot="1">
       <c r="B82" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="21"/>
       <c r="G82" s="6">
-        <v>93.820999999999998</v>
+        <v>2.6720000000000002</v>
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="2:8" ht="16" thickBot="1">
+    <row r="83" spans="2:8" ht="31" thickBot="1">
       <c r="B83" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="21"/>
       <c r="G83" s="6">
-        <v>9.2859999999999996</v>
-      </c>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="2:8" ht="31" thickBot="1">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="46" thickBot="1">
       <c r="B84" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="21"/>
       <c r="G84" s="6">
-        <v>9.2859999999999996</v>
+        <v>5.48</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>40</v>
@@ -6466,77 +6710,127 @@
     </row>
     <row r="85" spans="2:8" ht="16" thickBot="1">
       <c r="B85" s="6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="21"/>
       <c r="G85" s="6">
-        <v>9.2789999999999999</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="2:8" ht="45">
+    <row r="86" spans="2:8" ht="31" thickBot="1">
       <c r="B86" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>371</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="21"/>
       <c r="G86" s="6">
+        <v>2.036</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" ht="31" thickBot="1">
+      <c r="B87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="6">
+        <v>93.820999999999998</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="31" thickBot="1">
+      <c r="B88" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="6">
+        <v>9.2859999999999996</v>
+      </c>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" ht="46" thickBot="1">
+      <c r="B89" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="6">
+        <v>9.2859999999999996</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="16" thickBot="1">
+      <c r="G90" s="6">
+        <v>9.2789999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="16" thickBot="1">
+      <c r="B91" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="6">
         <v>9.2759999999999998</v>
       </c>
-      <c r="H86" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" ht="16" thickBot="1"/>
-    <row r="88" spans="2:8" ht="16" thickBot="1">
-      <c r="B88" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="1" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="30">
+      <c r="B97" s="2" t="s">
         <v>306</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:C91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/End_2_EndTestAutomationReport.xlsx
+++ b/End_2_EndTestAutomationReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="60" windowWidth="24020" windowHeight="17220" tabRatio="218" activeTab="2"/>
+    <workbookView xWindow="34640" yWindow="1700" windowWidth="24020" windowHeight="17220" tabRatio="218" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 2ne" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="442">
   <si>
     <t>Test Execution Report : August 2nd 2016, 2:41:22 pm</t>
   </si>
@@ -1535,6 +1535,78 @@
   </si>
   <si>
     <t>calendarBusinessDayScenario.test.db.js</t>
+  </si>
+  <si>
+    <t>Need to revew with Abhi</t>
+  </si>
+  <si>
+    <t>Shoujld review this as well</t>
+  </si>
+  <si>
+    <t>ACTUALLY:  I would like the entry BeforeAll function explained</t>
+  </si>
+  <si>
+    <t>Make payment workflow executed
+$249.99 should pass
+Is this a transaction LIMIT ???</t>
+  </si>
+  <si>
+    <t>$250 Should pass
+Is this a transaction LIMIT ???</t>
+  </si>
+  <si>
+    <t>$ 250.01 should fail
+with "exceeds" alert
+Is this a transaction LIMIT ???</t>
+  </si>
+  <si>
+    <t>The facing logic is clear,
+the underlying logic is not clear.  If these are cumulative, how do we 01 under the limit followed by the limit .  We should be at $499.99  Not ZERO</t>
+  </si>
+  <si>
+    <t>Lines 45, 47 need explanation</t>
+  </si>
+  <si>
+    <t>login as lorrainestewart.  It looks like a really unusual date picker (from, to ) are used.
+Confirm # of paments === 0
+Confirm there is a no records msg
+Confirm the message reads ( the proper text )</t>
+  </si>
+  <si>
+    <t>Not sure why we're doing this test.  Nav to a spe</t>
+  </si>
+  <si>
+    <t>All it is doing is checking the page title. 
+Don't think this test is valuable</t>
+  </si>
+  <si>
+    <t>There is some work done in the BeforeALL for this describe.  Don't know why the block between lin 72 and 86 is don’t at all</t>
+  </si>
+  <si>
+    <t>Gets the number of payments and checks to see if it equal 1
+Then compares the returned name date and amount with values previously inserted into the db</t>
+  </si>
+  <si>
+    <t>Should not display the no records message when recoreds exist</t>
+  </si>
+  <si>
+    <t>Double negative test
+isNoRecoredsMessageShown().toBeFalsy</t>
+  </si>
+  <si>
+    <t>I suppose it's ok to do this test, but it needs to be renamed as stated</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>4 payments are pumped ino the system 
+3 different amounts, one set of same value
+3 different dates payment made on, 1 pair
+3 different payee names, 1 pair
+1 payee account number, all same
+1 funding account identifier, all same
+Internal references allset to be unique for identificaiton</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1778,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1738,8 +1810,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1816,14 +1892,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1843,8 +1913,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1860,6 +1939,8 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1875,6 +1956,8 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2221,10 +2304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5">
@@ -3626,10 +3709,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5261,17 +5344,17 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="4"/>
+    <col min="1" max="1" width="18.33203125" style="23"/>
     <col min="2" max="2" width="36.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="17"/>
     <col min="7" max="8" width="18.33203125" style="4"/>
     <col min="9" max="9" width="78.33203125" style="4" customWidth="1"/>
@@ -5279,7 +5362,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>272</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -5467,7 +5550,7 @@
     </row>
     <row r="12" spans="1:11" ht="61" thickBot="1">
       <c r="B12" s="6"/>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="31" t="s">
         <v>395</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -5573,8 +5656,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:9" ht="27" thickBot="1">
+      <c r="A19" s="24" t="s">
         <v>275</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -5589,8 +5672,8 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:9" ht="27" thickBot="1">
+      <c r="A20" s="24" t="s">
         <v>276</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -5606,7 +5689,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="53" thickBot="1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="24" t="s">
         <v>277</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -5711,7 +5794,7 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:9" ht="106" thickBot="1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="23" t="s">
         <v>390</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -5732,7 +5815,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="76" thickBot="1">
+    <row r="28" spans="1:9" ht="61" thickBot="1">
       <c r="B28" s="6" t="s">
         <v>333</v>
       </c>
@@ -5753,8 +5836,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="46" thickBot="1">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:9" ht="31" thickBot="1">
+      <c r="A29" s="24" t="s">
         <v>279</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5773,8 +5856,8 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="31" thickBot="1">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:9" ht="40" thickBot="1">
+      <c r="A30" s="24" t="s">
         <v>280</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5789,30 +5872,30 @@
       </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:9" s="32" customFormat="1" ht="106" thickBot="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="1:9" s="30" customFormat="1" ht="106" thickBot="1">
+      <c r="A31" s="35"/>
+      <c r="B31" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29">
+      <c r="F31" s="28"/>
+      <c r="G31" s="27">
         <v>3.5910000000000002</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="37" customHeight="1" thickBot="1">
-      <c r="A32" s="17"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="6" t="s">
         <v>337</v>
       </c>
@@ -6156,7 +6239,7 @@
       <c r="C51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="32" t="s">
         <v>418</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -6291,7 +6374,9 @@
         <v>107</v>
       </c>
       <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>424</v>
+      </c>
       <c r="F59" s="21"/>
       <c r="G59" s="6">
         <v>1E-3</v>
@@ -6321,7 +6406,9 @@
         <v>110</v>
       </c>
       <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="F61" s="21"/>
       <c r="G61" s="6">
         <v>0</v>
@@ -6351,7 +6438,9 @@
         <v>113</v>
       </c>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="F63" s="21"/>
       <c r="G63" s="6">
         <v>0</v>
@@ -6360,13 +6449,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="31" thickBot="1">
+    <row r="64" spans="2:8" ht="61" thickBot="1">
       <c r="B64" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="6" t="s">
         <v>291</v>
       </c>
       <c r="F64" s="21" t="s">
@@ -6377,20 +6466,22 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:8" ht="46" thickBot="1">
+    <row r="65" spans="1:8" ht="61" thickBot="1">
       <c r="B65" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="D65" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="F65" s="24"/>
+      <c r="F65" s="24" t="s">
+        <v>426</v>
+      </c>
       <c r="G65" s="6">
         <v>0</v>
       </c>
@@ -6398,19 +6489,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="46" thickBot="1">
+    <row r="66" spans="1:8" ht="46" thickBot="1">
       <c r="B66" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="E66" s="22" t="s">
-        <v>296</v>
-      </c>
+      <c r="D66" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E66" s="23"/>
       <c r="F66" s="24"/>
       <c r="G66" s="6">
         <v>34.838999999999999</v>
@@ -6419,17 +6508,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="46" thickBot="1">
+    <row r="67" spans="1:8" ht="121" thickBot="1">
       <c r="B67" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="E67" s="13"/>
+      <c r="D67" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>430</v>
+      </c>
       <c r="G67" s="6">
         <v>6.6680000000000001</v>
       </c>
@@ -6437,7 +6528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:8" ht="31" thickBot="1">
+    <row r="68" spans="1:8" ht="31" thickBot="1">
       <c r="B68" s="6" t="s">
         <v>367</v>
       </c>
@@ -6452,7 +6543,7 @@
       </c>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8" ht="31" thickBot="1">
+    <row r="69" spans="1:8" ht="31" thickBot="1">
       <c r="B69" s="6" t="s">
         <v>368</v>
       </c>
@@ -6465,15 +6556,19 @@
       </c>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="2:8" ht="31" thickBot="1">
+    <row r="70" spans="1:8" ht="106" thickBot="1">
       <c r="B70" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>431</v>
+      </c>
       <c r="F70" s="21"/>
       <c r="G70" s="6">
         <v>62.238999999999997</v>
@@ -6482,28 +6577,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="31" thickBot="1">
+    <row r="71" spans="1:8" ht="91" thickBot="1">
       <c r="B71" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>435</v>
+      </c>
       <c r="F71" s="21"/>
       <c r="G71" s="6">
         <v>20.864999999999998</v>
       </c>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="2:8" ht="31" thickBot="1">
+    <row r="72" spans="1:8" ht="46" thickBot="1">
       <c r="B72" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="F72" s="21"/>
       <c r="G72" s="6">
         <v>0.45100000000000001</v>
@@ -6512,14 +6613,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="31" thickBot="1">
+    <row r="73" spans="1:8" ht="76" thickBot="1">
       <c r="B73" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="E73" s="6"/>
       <c r="F73" s="21"/>
       <c r="G73" s="6">
@@ -6529,15 +6632,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="2:8" ht="31" thickBot="1">
+    <row r="74" spans="1:8" ht="61" thickBot="1">
+      <c r="A74" s="23" t="s">
+        <v>437</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="F74" s="21"/>
       <c r="G74" s="6">
         <v>0.19</v>
@@ -6546,12 +6656,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="31" thickBot="1">
+    <row r="75" spans="1:8" ht="121" thickBot="1">
       <c r="B75" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="E75" s="6"/>
       <c r="F75" s="21"/>
       <c r="G75" s="6">
@@ -6559,7 +6671,7 @@
       </c>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="2:8" ht="31" thickBot="1">
+    <row r="76" spans="1:8" ht="31" thickBot="1">
       <c r="B76" s="6" t="s">
         <v>134</v>
       </c>
@@ -6576,14 +6688,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="31" thickBot="1">
+    <row r="77" spans="1:8" ht="31" thickBot="1">
       <c r="B77" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="E77" s="6"/>
       <c r="F77" s="21"/>
       <c r="G77" s="6">
@@ -6593,7 +6707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="31" thickBot="1">
+    <row r="78" spans="1:8" ht="31" thickBot="1">
       <c r="B78" s="6" t="s">
         <v>138</v>
       </c>
@@ -6610,7 +6724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="2:8" ht="31" thickBot="1">
+    <row r="79" spans="1:8" ht="31" thickBot="1">
       <c r="B79" s="6" t="s">
         <v>140</v>
       </c>
@@ -6627,7 +6741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="31" thickBot="1">
+    <row r="80" spans="1:8" ht="31" thickBot="1">
       <c r="B80" s="6" t="s">
         <v>142</v>
       </c>
@@ -6787,10 +6901,10 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="16" thickBot="1">
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C91" s="26"/>
+      <c r="C91" s="33"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="25"/>

--- a/End_2_EndTestAutomationReport.xlsx
+++ b/End_2_EndTestAutomationReport.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34640" yWindow="1700" windowWidth="24020" windowHeight="17220" tabRatio="218" activeTab="2"/>
+    <workbookView xWindow="70300" yWindow="1420" windowWidth="29760" windowHeight="20260" tabRatio="338" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 2ne" sheetId="2" r:id="rId1"/>
     <sheet name="Aug 19th" sheetId="4" r:id="rId2"/>
     <sheet name="Aug 23" sheetId="5" r:id="rId3"/>
+    <sheet name="Aug 26" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="552">
   <si>
     <t>Test Execution Report : August 2nd 2016, 2:41:22 pm</t>
   </si>
@@ -1597,10 +1598,23 @@
     <t>I suppose it's ok to do this test, but it needs to be renamed as stated</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>4 payments are pumped ino the system 
+    <t>Default payment sort/display is by date</t>
+  </si>
+  <si>
+    <t>Click on the Date Column Header and reverse the default sorting order</t>
+  </si>
+  <si>
+    <t>Click on the Payee Name Column Header forcing decending sort by Payee Name</t>
+  </si>
+  <si>
+    <t>Click on the Payee Name Column Header reversing the sort order</t>
+  </si>
+  <si>
+    <t>Click on Amount Column Header sort by Descending Highest to Lowest.</t>
+  </si>
+  <si>
+    <t>TEST SETUP:
+4 payments are pumped ino the system 
 3 different amounts, one set of same value
 3 different dates payment made on, 1 pair
 3 different payee names, 1 pair
@@ -1608,11 +1622,401 @@
 1 funding account identifier, all same
 Internal references allset to be unique for identificaiton</t>
   </si>
+  <si>
+    <t>TEST SETUP:  Different from one above
+4 payments are pumped ino the system 
+3 different amounts, one set of same value
+3 different dates payment made on, 1 pair
+3 different payee names, 1 pair
+1 payee account number, all same
+1 funding account identifier, all same
+Internal references allset to be unique for identificaiton</t>
+  </si>
+  <si>
+    <t>With newly setup payment data:
+Payee name filter on Payee that returs 2 records
+Evaluate both recoreds returned, check for PName
+Clear first PName filter and replace with another that returns 1 record.
+Evaluate record returned for proper PName</t>
+  </si>
+  <si>
+    <t>I like this test
+** We need to add a simple Negative to this ***   
+Set P Name filter to "XXX"  and validate Zero recoreds returned.</t>
+  </si>
+  <si>
+    <t>Return to Pay Summary
+Note 4 records returned.
+Set filter to P Name Evaluate 2 records returned
+Use the P Name Clear function, evaluate 4 records returned ( return to default state )</t>
+  </si>
+  <si>
+    <t>6. Audit Events</t>
+  </si>
+  <si>
+    <t>  6.1 Audit Events</t>
+  </si>
+  <si>
+    <t>7. Audit Events.Payment audit event enhanced search</t>
+  </si>
+  <si>
+    <t>  7.1 Audit Events.Payment audit event enhanced search</t>
+  </si>
+  <si>
+    <t>should see a record for payee name filtered by any part of the content</t>
+  </si>
+  <si>
+    <t>  7.2 Audit Events.Payment audit event enhanced search</t>
+  </si>
+  <si>
+    <t>should see a record for payee name filtered by end of the content</t>
+  </si>
+  <si>
+    <t>  7.3 Audit Events.Payment audit event enhanced search</t>
+  </si>
+  <si>
+    <t>should display no records message when no payee does not match</t>
+  </si>
+  <si>
+    <t>8. Audit Events.Payee audit event</t>
+  </si>
+  <si>
+    <t>  8.1 Audit Events.Payee audit event</t>
+  </si>
+  <si>
+    <t>9. csrf-test</t>
+  </si>
+  <si>
+    <t>10. csrf-test.Invalid Token test</t>
+  </si>
+  <si>
+    <t>  10.1 csrf-test.Invalid Token test</t>
+  </si>
+  <si>
+    <t>11. ooba_payment</t>
+  </si>
+  <si>
+    <t>12. ooba_payment.CTV flow</t>
+  </si>
+  <si>
+    <t>  12.1 ooba_payment.CTV flow</t>
+  </si>
+  <si>
+    <t>13. Payee tests</t>
+  </si>
+  <si>
+    <t>14. Payee tests.Save Payee Section</t>
+  </si>
+  <si>
+    <t>  14.1 Payee tests.Save Payee Section</t>
+  </si>
+  <si>
+    <t>  14.2 Payee tests.Save Payee Section</t>
+  </si>
+  <si>
+    <t>15. Payee tests.Edit form payee</t>
+  </si>
+  <si>
+    <t>  15.1 Payee tests.Edit form payee</t>
+  </si>
+  <si>
+    <t>  15.2 Payee tests.Edit form payee</t>
+  </si>
+  <si>
+    <t>16. Payment Entitlement</t>
+  </si>
+  <si>
+    <t>17. Payment Entitlement.can create and view a payment</t>
+  </si>
+  <si>
+    <t>  17.1 Payment Entitlement.can create and view a payment</t>
+  </si>
+  <si>
+    <t>18. Payment Entitlement.can create and view a payment.payments increase after adding a payment</t>
+  </si>
+  <si>
+    <t>  18.1 Payment Entitlement.can create and view a payment.payments increase after adding a payment</t>
+  </si>
+  <si>
+    <t>19. authenticate</t>
+  </si>
+  <si>
+    <t>  19.1 authenticate</t>
+  </si>
+  <si>
+    <t>  19.2 authenticate</t>
+  </si>
+  <si>
+    <t>20. ianmilbourn</t>
+  </si>
+  <si>
+    <t>21. ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>  21.1 ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>  21.2 ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>  21.3 ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>  21.4 ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>  21.5 ianmilbourn.Available Payees</t>
+  </si>
+  <si>
+    <t>22. ianmilbourn.Transaction Limits</t>
+  </si>
+  <si>
+    <t>  22.1 ianmilbourn.Transaction Limits</t>
+  </si>
+  <si>
+    <t>  22.2 ianmilbourn.Transaction Limits</t>
+  </si>
+  <si>
+    <t>23. ianmilbourn.Funding Accunt</t>
+  </si>
+  <si>
+    <t>  23.1 ianmilbourn.Funding Accunt</t>
+  </si>
+  <si>
+    <t>  23.2 ianmilbourn.Funding Accunt</t>
+  </si>
+  <si>
+    <t>24. ianmilbourn.System level transaction amount limits</t>
+  </si>
+  <si>
+    <t>  24.1 ianmilbourn.System level transaction amount limits</t>
+  </si>
+  <si>
+    <t>25. ianmilbourn.Payment Type cutoff times</t>
+  </si>
+  <si>
+    <t>  25.1 ianmilbourn.Payment Type cutoff times</t>
+  </si>
+  <si>
+    <t>26. ianmilbourn.Payment Types</t>
+  </si>
+  <si>
+    <t>  26.1 ianmilbourn.Payment Types</t>
+  </si>
+  <si>
+    <t>  26.2 ianmilbourn.Payment Types</t>
+  </si>
+  <si>
+    <t>27. Payment processing date</t>
+  </si>
+  <si>
+    <t>28. Payment processing date.today is a holiday</t>
+  </si>
+  <si>
+    <t>  28.1 Payment processing date.today is a holiday</t>
+  </si>
+  <si>
+    <t>29. Payment processing date.0 days until next business day</t>
+  </si>
+  <si>
+    <t>  29.1 Payment processing date.0 days until next business day</t>
+  </si>
+  <si>
+    <t>30. Payment processing date.3 days until next business day</t>
+  </si>
+  <si>
+    <t>  30.1 Payment processing date.3 days until next business day</t>
+  </si>
+  <si>
+    <t>31. Cumulative Limits</t>
+  </si>
+  <si>
+    <t>  31.1 Cumulative Limits</t>
+  </si>
+  <si>
+    <t>  31.2 Cumulative Limits</t>
+  </si>
+  <si>
+    <t>  31.3 Cumulative Limits</t>
+  </si>
+  <si>
+    <t>32. Payments Home and Payment table</t>
+  </si>
+  <si>
+    <t>33. Payments Home and Payment table.no records message</t>
+  </si>
+  <si>
+    <t>  33.1 Payments Home and Payment table.no records message</t>
+  </si>
+  <si>
+    <t>34. Payments Home and Payment table.home page</t>
+  </si>
+  <si>
+    <t>  34.1 Payments Home and Payment table.home page</t>
+  </si>
+  <si>
+    <t>  34.2 Payments Home and Payment table.home page</t>
+  </si>
+  <si>
+    <t>  34.3 Payments Home and Payment table.home page</t>
+  </si>
+  <si>
+    <t>35. Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.1 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.2 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.3 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.4 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.5 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>  35.6 Payments Home and Payment table.payment sorting</t>
+  </si>
+  <si>
+    <t>36. Payments Home and Payment table.payments filter</t>
+  </si>
+  <si>
+    <t>  36.1 Payments Home and Payment table.payments filter</t>
+  </si>
+  <si>
+    <t>  36.2 Payments Home and Payment table.payments filter</t>
+  </si>
+  <si>
+    <t>37. Payment submission</t>
+  </si>
+  <si>
+    <t>38. Payment submission.by payment type</t>
+  </si>
+  <si>
+    <t>  38.1 Payment submission.by payment type</t>
+  </si>
+  <si>
+    <t>39. Payment submission.with a free form payee</t>
+  </si>
+  <si>
+    <t>  39.1 Payment submission.with a free form payee</t>
+  </si>
+  <si>
+    <t>Test Execution Report : August 26th 2016, 4:33:38 am</t>
+  </si>
+  <si>
+    <r>
+      <t>Total Tests:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202020"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pass Rate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202020"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 92.593%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Execution Duration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF202020"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 649.14 seconds</t>
+    </r>
+  </si>
+  <si>
+    <t>**  Talk With Abhi or DT  **</t>
+  </si>
+  <si>
+    <t>Should nav to auditRpt</t>
+  </si>
+  <si>
+    <t>Browser set to baseUrl + "#/auditReport"
+Page Title is checked to conform string "Payments audit report"</t>
+  </si>
+  <si>
+    <t>audit_payee_filter.test.js</t>
+  </si>
+  <si>
+    <t>Audit Page is opened after a mock Audit Pament has been loaded on the Db.  
+Audit Page Filters are activiated with
+FromDate, ToDate, P Name String ".test." a Null auditEventId, and a configured ClientName
+The number of rows returned is compared to 1
+There is a call returning the records data and it's compared to the mockAudit that was loaded</t>
+  </si>
+  <si>
+    <t>Nearly identical to the test above, the test is for the value ".end"     Look at the P Name two cell s up
+The Same count of records returned is checked
+The same evaluation of the data returned against the mock data loaded</t>
+  </si>
+  <si>
+    <t>Test is executed against the P Name string blahblah  that was not loaded in the mock data load
+Number of records is compated to Zero
+isNoRecordsMessageShown checked to be True
+Message is checked tobe the String we know.</t>
+  </si>
+  <si>
+    <t>A pament for ianmilbourn is set, 
+Payeename blah.test.end
+Sortcode 88-88-82
+P Acct num 88888882
+amt £12.00 GBP'
+There is more data I just haven't written it</t>
+  </si>
+  <si>
+    <t>Same test that looks for any text in p Name is rerun.  All the record data is requested and compared against the mock Data that was put in.</t>
+  </si>
+  <si>
+    <t>Would this work if ther payee did'n have a nickname ???</t>
+  </si>
+  <si>
+    <t>Nav to payment 
+execute payment workflow
+nave to Pay Summary
+Look at payment at 0th index ( top entry )
+Compare Payee NickName
+Compare Payment amount
+Compare pay Type
+Compare Payee Acct Number
+Compare login Name</t>
+  </si>
+  <si>
+    <t>Execute payment workflow with new payee  D not Save Payee Nick Name</t>
+  </si>
+  <si>
+    <t>Need to look this one over to make sure it's actuall doing what it looks like.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1704,7 +2108,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1732,6 +2136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF47B100"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1778,7 +2188,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1814,8 +2224,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1913,17 +2333,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1941,6 +2376,11 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1958,6 +2398,11 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2304,10 +2749,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5">
@@ -3709,10 +4154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="34"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5343,9 +5788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5873,7 +6318,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:9" s="30" customFormat="1" ht="106" thickBot="1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="27" t="s">
         <v>336</v>
       </c>
@@ -6656,13 +7101,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="121" thickBot="1">
+    <row r="75" spans="1:8" ht="136" thickBot="1">
       <c r="B75" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="21"/>
@@ -6678,7 +7123,9 @@
       <c r="C76" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="E76" s="6"/>
       <c r="F76" s="21"/>
       <c r="G76" s="6">
@@ -6696,7 +7143,7 @@
         <v>137</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="21"/>
@@ -6714,7 +7161,9 @@
       <c r="C78" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="E78" s="6"/>
       <c r="F78" s="21"/>
       <c r="G78" s="6">
@@ -6731,7 +7180,9 @@
       <c r="C79" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="21"/>
       <c r="G79" s="6">
@@ -6748,7 +7199,9 @@
       <c r="C80" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="E80" s="6"/>
       <c r="F80" s="21"/>
       <c r="G80" s="6">
@@ -6765,7 +7218,9 @@
       <c r="C81" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="E81" s="6"/>
       <c r="F81" s="21"/>
       <c r="G81" s="6">
@@ -6775,12 +7230,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="31" thickBot="1">
+    <row r="82" spans="2:8" ht="136" thickBot="1">
       <c r="B82" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="E82" s="6"/>
       <c r="F82" s="21"/>
       <c r="G82" s="6">
@@ -6788,15 +7245,19 @@
       </c>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="2:8" ht="31" thickBot="1">
+    <row r="83" spans="2:8" ht="136" thickBot="1">
       <c r="B83" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="F83" s="21"/>
       <c r="G83" s="6">
         <v>2.7909999999999999</v>
@@ -6805,14 +7266,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="46" thickBot="1">
+    <row r="84" spans="2:8" ht="91" thickBot="1">
       <c r="B84" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="E84" s="6"/>
       <c r="F84" s="21"/>
       <c r="G84" s="6">
@@ -6901,10 +7364,10 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="16" thickBot="1">
-      <c r="B91" s="33" t="s">
+      <c r="B91" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C91" s="33"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="25"/>
@@ -6954,4 +7417,1776 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31" thickBot="1">
+      <c r="A1" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="6">
+        <v>65.263999999999996</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="31" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>13.605</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="61" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="61" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="76" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>4.032</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="46" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" thickBot="1">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="46" thickBot="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="6">
+        <v>15.507</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="46" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="6">
+        <v>15.507</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="6">
+        <v>37.631</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" ht="46" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="2:9" ht="91" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="G18" s="6">
+        <v>16.494</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" ht="121" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="6">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="91" thickBot="1">
+      <c r="B20" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="6">
+        <v>5.6310000000000002</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="91" thickBot="1">
+      <c r="B21" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="6">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16" thickBot="1">
+      <c r="B22" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="6">
+        <v>5.2969999999999997</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="61" thickBot="1">
+      <c r="B23" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="6">
+        <v>5.282</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16" thickBot="1">
+      <c r="B24" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="6">
+        <v>21.164000000000001</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:9" ht="16" thickBot="1">
+      <c r="B25" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="6">
+        <v>8.3870000000000005</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:9" ht="61" thickBot="1">
+      <c r="B26" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="6">
+        <v>8.3870000000000005</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16" thickBot="1">
+      <c r="B27" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="6">
+        <v>13.038</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:9" ht="16" thickBot="1">
+      <c r="B28" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:9" ht="53" thickBot="1">
+      <c r="B29" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="16" thickBot="1">
+      <c r="B30" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45.182000000000002</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:9" ht="16" thickBot="1">
+      <c r="B31" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="6">
+        <v>15.576000000000001</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:9" ht="76" thickBot="1">
+      <c r="B32" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="6">
+        <v>8.4329999999999998</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="31" thickBot="1">
+      <c r="B33" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="6">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="16" thickBot="1">
+      <c r="B34" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="6">
+        <v>15.223000000000001</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" ht="106" thickBot="1">
+      <c r="B35" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="6">
+        <v>8.3810000000000002</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="61" thickBot="1">
+      <c r="B36" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="6">
+        <v>6.8419999999999996</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="31" thickBot="1">
+      <c r="B37" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G37" s="6">
+        <v>26.428999999999998</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" ht="16" thickBot="1">
+      <c r="B38" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="6">
+        <v>11.535</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" ht="106" thickBot="1">
+      <c r="B39" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="6">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="48" customHeight="1" thickBot="1">
+      <c r="B40" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="6">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" ht="61" thickBot="1">
+      <c r="B41" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="6">
+        <v>8.4179999999999993</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="50" customHeight="1" thickBot="1">
+      <c r="B42" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G42" s="6">
+        <v>19.239000000000001</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" ht="73" customHeight="1" thickBot="1">
+      <c r="B43" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="6">
+        <v>3.952</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="76" customHeight="1" thickBot="1">
+      <c r="B44" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="27" thickBot="1">
+      <c r="B45" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" s="6">
+        <v>44.241</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" ht="16" thickBot="1">
+      <c r="B46" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="6">
+        <v>7.0919999999999996</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" ht="61" thickBot="1">
+      <c r="B47" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F47" s="21"/>
+      <c r="G47" s="6">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="46" thickBot="1">
+      <c r="B48" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="6">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="46" thickBot="1">
+      <c r="B49" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="6">
+        <v>1.732</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="46" thickBot="1">
+      <c r="B50" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="6">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="61" thickBot="1">
+      <c r="B51" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="6">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="27" thickBot="1">
+      <c r="B52" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G52" s="6">
+        <v>7.79</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="46" thickBot="1">
+      <c r="B53" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="6">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="61" thickBot="1">
+      <c r="B54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="6">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="27" thickBot="1">
+      <c r="B55" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G55" s="6">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" ht="46" thickBot="1">
+      <c r="B56" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="6">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="76" thickBot="1">
+      <c r="B57" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="6">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="27" thickBot="1">
+      <c r="B58" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" ht="91" thickBot="1">
+      <c r="B59" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="6">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="27" thickBot="1">
+      <c r="B60" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1.167</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" ht="46" thickBot="1">
+      <c r="B61" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="6">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="27" thickBot="1">
+      <c r="B62" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" ht="28" customHeight="1" thickBot="1">
+      <c r="B63" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="6">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="28" customHeight="1" thickBot="1">
+      <c r="B64" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="6">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="27" thickBot="1">
+      <c r="B65" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" ht="16" thickBot="1">
+      <c r="B66" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" ht="31" thickBot="1">
+      <c r="B67" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="31" thickBot="1">
+      <c r="B68" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" ht="31" thickBot="1">
+      <c r="B69" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="31" thickBot="1">
+      <c r="B70" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" ht="31" thickBot="1">
+      <c r="B71" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D71" s="38"/>
+      <c r="E71" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" s="21"/>
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="61" thickBot="1">
+      <c r="B72" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G72" s="6">
+        <v>28.422999999999998</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" ht="61" thickBot="1">
+      <c r="B73" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G73" s="6">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="46" thickBot="1">
+      <c r="B74" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="6">
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="121" thickBot="1">
+      <c r="B75" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F75" s="17"/>
+      <c r="G75" s="6">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="27" thickBot="1">
+      <c r="B76" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G76" s="6">
+        <v>53.926000000000002</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" ht="31" thickBot="1">
+      <c r="B77" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="6">
+        <v>17.417000000000002</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" ht="76" thickBot="1">
+      <c r="B78" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="91" thickBot="1">
+      <c r="B79" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F79" s="21"/>
+      <c r="G79" s="6">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="2:8" ht="46" thickBot="1">
+      <c r="B80" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F80" s="21"/>
+      <c r="G80" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="76" thickBot="1">
+      <c r="B81" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="46" thickBot="1">
+      <c r="B82" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F82" s="21"/>
+      <c r="G82" s="6">
+        <v>0.108</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="136" thickBot="1">
+      <c r="B83" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="6">
+        <v>14.698</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" ht="31" thickBot="1">
+      <c r="B84" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="6">
+        <v>1.524</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="31" thickBot="1">
+      <c r="B85" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="31" thickBot="1">
+      <c r="B86" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E86" s="6"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="6">
+        <v>1.992</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="31" thickBot="1">
+      <c r="B87" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="6">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="31" thickBot="1">
+      <c r="B88" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="6">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="31" thickBot="1">
+      <c r="B89" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="6">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="136" thickBot="1">
+      <c r="B90" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E90" s="6"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="6">
+        <v>6.5730000000000004</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" ht="136" thickBot="1">
+      <c r="B91" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="6">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="76" thickBot="1">
+      <c r="B92" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="6">
+        <v>1.569</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="16" thickBot="1">
+      <c r="B93" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6">
+        <v>92.84</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" ht="16" thickBot="1">
+      <c r="B94" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" ht="136" thickBot="1">
+      <c r="B95" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="16" thickBot="1">
+      <c r="B96" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:8" ht="60">
+      <c r="B97" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="16" thickBot="1"/>
+    <row r="100" spans="2:8" ht="16" thickBot="1">
+      <c r="B100" s="36" t="s">
+        <v>535</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C106" s="4">
+        <f>COUNTA(C2:C99)</f>
+        <v>55</v>
+      </c>
+      <c r="D106" s="4">
+        <f>COUNTA(D2:D99)</f>
+        <v>56</v>
+      </c>
+      <c r="E106" s="4">
+        <f>COUNTA(E2:E99)</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B100:C100"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/End_2_EndTestAutomationReport.xlsx
+++ b/End_2_EndTestAutomationReport.xlsx
@@ -4,13 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="70300" yWindow="1420" windowWidth="29760" windowHeight="20260" tabRatio="338" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="69000" yWindow="3360" windowWidth="25780" windowHeight="17160" tabRatio="869" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Aug 2ne" sheetId="2" r:id="rId1"/>
     <sheet name="Aug 19th" sheetId="4" r:id="rId2"/>
     <sheet name="Aug 23" sheetId="5" r:id="rId3"/>
     <sheet name="Aug 26" sheetId="6" r:id="rId4"/>
+    <sheet name="Audit Events" sheetId="7" r:id="rId5"/>
+    <sheet name="CSRF&amp;OOBA" sheetId="8" r:id="rId6"/>
+    <sheet name="Payee Tests" sheetId="9" r:id="rId7"/>
+    <sheet name="Pmt Entitlement" sheetId="10" r:id="rId8"/>
+    <sheet name="Authenticate" sheetId="11" r:id="rId9"/>
+    <sheet name="ianMilburn" sheetId="12" r:id="rId10"/>
+    <sheet name="Pmt Processing" sheetId="13" r:id="rId11"/>
+    <sheet name="Cumulative Limits" sheetId="14" r:id="rId12"/>
+    <sheet name="Pmt Home" sheetId="15" r:id="rId13"/>
+    <sheet name="Pmt submission" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="552">
   <si>
     <t>Test Execution Report : August 2nd 2016, 2:41:22 pm</t>
   </si>
@@ -2188,7 +2198,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2234,8 +2244,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -2357,8 +2393,14 @@
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2381,6 +2423,19 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2403,6 +2458,19 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2749,10 +2817,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" thickBot="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5">
@@ -4123,6 +4191,1218 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G2" s="6">
+        <v>44.241</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>7.0919999999999996</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6">
+        <v>1.732</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="6">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="6">
+        <v>7.79</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="6">
+        <v>3.4969999999999999</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B11" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="6">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" s="6">
+        <v>7.6520000000000001</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="6">
+        <v>3.7109999999999999</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="6">
+        <v>3.9409999999999998</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="91" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="6">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1.167</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="6">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B20" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="6">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="4" customFormat="1" ht="45">
+      <c r="B21" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="6">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="30">
+      <c r="B8" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="6">
+        <v>28.422999999999998</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5.9660000000000002</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="6">
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="75">
+      <c r="B5" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="6">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="6">
+        <v>53.926000000000002</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>17.417000000000002</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="106" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="6">
+        <v>0.108</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="136" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="6">
+        <v>14.698</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="6">
+        <v>1.524</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B11" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B12" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="6">
+        <v>1.992</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B13" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="6">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B14" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="6">
+        <v>2.1480000000000001</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="6">
+        <v>2.2090000000000001</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="136" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="6">
+        <v>6.5730000000000004</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" s="4" customFormat="1" ht="136" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="6">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" s="4" customFormat="1" ht="90">
+      <c r="B18" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="6">
+        <v>1.569</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="91" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="6">
+        <v>1.569</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>92.84</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="136" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="30">
+      <c r="B7" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>6.1879999999999997</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4154,10 +5434,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" thickBot="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="12"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7364,10 +8644,10 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="16" thickBot="1">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="C91" s="36"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="25"/>
@@ -7423,9 +8703,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A92:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9127,10 +10407,10 @@
     </row>
     <row r="99" spans="2:8" ht="16" thickBot="1"/>
     <row r="100" spans="2:8" ht="16" thickBot="1">
-      <c r="B100" s="36" t="s">
+      <c r="B100" s="41" t="s">
         <v>535</v>
       </c>
-      <c r="C100" s="36"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -9189,4 +10469,970 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="6" width="33.1640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickBot="1"/>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="6">
+        <v>65.263999999999996</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6">
+        <v>13.605</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>8.2789999999999999</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>4.032</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B11" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
+        <v>4.0170000000000003</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="A14" s="23"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B15" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="G15" s="6">
+        <v>15.507</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B16" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="6">
+        <v>15.507</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B17" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="6">
+        <v>37.631</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" s="4" customFormat="1" ht="46" thickBot="1">
+      <c r="B18" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="6">
+        <v>0.121</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="2:9" s="4" customFormat="1" ht="91" thickBot="1">
+      <c r="B19" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="G19" s="6">
+        <v>16.494</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" s="4" customFormat="1" ht="121" thickBot="1">
+      <c r="B20" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="6">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B21" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="6">
+        <v>5.6310000000000002</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B22" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="6">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B23" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="6">
+        <v>5.2969999999999997</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" s="4" customFormat="1" ht="45">
+      <c r="B24" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="6">
+        <v>5.282</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="6" width="35.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="6">
+        <v>21.164000000000001</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>8.3870000000000005</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="91" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>8.3870000000000005</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>13.038</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="65">
+      <c r="B7" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A2:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" s="6">
+        <v>45.182000000000002</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>15.576000000000001</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="106" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>8.4329999999999998</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="6">
+        <v>15.223000000000001</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="121" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="6">
+        <v>8.3810000000000002</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="60">
+      <c r="B8" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="6">
+        <v>6.8419999999999996</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="29.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="40" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="6">
+        <v>26.428999999999998</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>11.535</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="181" thickBot="1">
+      <c r="B4" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="6">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="B5" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="6">
+        <v>8.4190000000000005</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="90">
+      <c r="B6" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="6">
+        <v>8.4179999999999993</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="5" width="39.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="61" thickBot="1">
+      <c r="A1" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="27" thickBot="1">
+      <c r="B2" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19.239000000000001</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="76" thickBot="1">
+      <c r="B3" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="6">
+        <v>3.952</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="45">
+      <c r="B4" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/End_2_EndTestAutomationReport.xlsx
+++ b/End_2_EndTestAutomationReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="-13580" windowWidth="25780" windowHeight="17160" tabRatio="869"/>
+    <workbookView xWindow="66740" yWindow="4000" windowWidth="25600" windowHeight="16060" tabRatio="869" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="new sep23" sheetId="17" r:id="rId1"/>
-    <sheet name="Aug 26" sheetId="6" r:id="rId2"/>
+    <sheet name="InitialOutput" sheetId="17" r:id="rId1"/>
+    <sheet name="CompleteListing" sheetId="6" r:id="rId2"/>
     <sheet name="Audit Events" sheetId="7" r:id="rId3"/>
     <sheet name="CSRF&amp;OOBA" sheetId="8" r:id="rId4"/>
     <sheet name="Payee Tests" sheetId="9" r:id="rId5"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="354">
   <si>
     <r>
       <t>Total Tests:</t>
@@ -1292,6 +1292,9 @@
   </si>
   <si>
     <t>  29.2 ianmilbourn.Payment Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.1 Audit Events    </t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3903,9 +3906,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3964,7 +3967,7 @@
     </row>
     <row r="3" spans="1:8" ht="31" thickBot="1">
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>25</v>
@@ -5748,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>91</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="31" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>99</v>
       </c>
